--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1265.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1265.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.574588232577251</v>
+        <v>1.197644472122192</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.2195143699646</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>10.61748123168945</v>
       </c>
       <c r="D1">
-        <v>1.244128788634813</v>
+        <v>2.57518196105957</v>
       </c>
       <c r="E1">
-        <v>0.8159259375263438</v>
+        <v>1.22445547580719</v>
       </c>
     </row>
   </sheetData>
